--- a/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>29164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20528</v>
+        <v>20654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39427</v>
+        <v>40882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1145659396635175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08063944264951821</v>
+        <v>0.08113464061592111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1548804154261427</v>
+        <v>0.1605970398285069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>5829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2775</v>
+        <v>2649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12082</v>
+        <v>12306</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07925338097824479</v>
+        <v>0.0792533809782448</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03773596629553462</v>
+        <v>0.03601406586337769</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.164277044230644</v>
+        <v>0.1673221065434728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -783,19 +783,19 @@
         <v>34993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24939</v>
+        <v>25441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46778</v>
+        <v>47731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1066502573908485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0760066466453143</v>
+        <v>0.07753784590877127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1425662215413183</v>
+        <v>0.1454731778448718</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>225397</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215134</v>
+        <v>213679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>234033</v>
+        <v>233907</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8854340603364826</v>
+        <v>0.8854340603364825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8451195845738573</v>
+        <v>0.8394029601714926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9193605573504816</v>
+        <v>0.9188653593840787</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -833,19 +833,19 @@
         <v>67720</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61467</v>
+        <v>61243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70774</v>
+        <v>70900</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9207466190217553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8357229557693561</v>
+        <v>0.8326778934565274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9622640337044653</v>
+        <v>0.9639859341366223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>390</v>
@@ -854,19 +854,19 @@
         <v>293118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>281333</v>
+        <v>280380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>303172</v>
+        <v>302670</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8933497426091513</v>
+        <v>0.8933497426091515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8574337784586817</v>
+        <v>0.8545268221551283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9239933533546855</v>
+        <v>0.9224621540912287</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>104541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82657</v>
+        <v>82763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129753</v>
+        <v>132888</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.100093712825775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07914023899878546</v>
+        <v>0.07924233588989875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1242333162648994</v>
+        <v>0.1272350365464757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -979,19 +979,19 @@
         <v>30058</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20817</v>
+        <v>20536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44526</v>
+        <v>43308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05373894381308495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03721709655107858</v>
+        <v>0.03671516703262577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0796050280134095</v>
+        <v>0.07742702837590711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -1000,19 +1000,19 @@
         <v>134599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111958</v>
+        <v>111097</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162888</v>
+        <v>158832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08392683163863719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06980900876023179</v>
+        <v>0.06927254795511763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1015660578026302</v>
+        <v>0.09903646822201656</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>939891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>914679</v>
+        <v>911544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>961775</v>
+        <v>961669</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8999062871742249</v>
+        <v>0.8999062871742251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8757666837351005</v>
+        <v>0.8727649634535243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9208597610012146</v>
+        <v>0.9207576641101011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>685</v>
@@ -1050,19 +1050,19 @@
         <v>529279</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514811</v>
+        <v>516029</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538520</v>
+        <v>538801</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9462610561869148</v>
+        <v>0.946261056186915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9203949719865901</v>
+        <v>0.9225729716240939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9627829034489211</v>
+        <v>0.9632848329673742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1517</v>
@@ -1071,19 +1071,19 @@
         <v>1469170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1440881</v>
+        <v>1444937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1491811</v>
+        <v>1492672</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9160731683613628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8984339421973697</v>
+        <v>0.9009635317779826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9301909912397681</v>
+        <v>0.9307274520448823</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>26919</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18270</v>
+        <v>17613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40960</v>
+        <v>39530</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07367567051391816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05000430479428167</v>
+        <v>0.04820540906437659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1121060393322254</v>
+        <v>0.1081925431545201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1196,19 +1196,19 @@
         <v>27576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18001</v>
+        <v>17677</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39684</v>
+        <v>40854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1026544567300613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06700974515745865</v>
+        <v>0.06580440488631695</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1477297421046599</v>
+        <v>0.1520838411853189</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -1217,19 +1217,19 @@
         <v>54495</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40438</v>
+        <v>39901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69813</v>
+        <v>70058</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08595408656552503</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06378304467959238</v>
+        <v>0.06293584263217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1101163785779051</v>
+        <v>0.1105023997697561</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>338451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>324410</v>
+        <v>325840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347100</v>
+        <v>347757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9263243294860819</v>
+        <v>0.9263243294860818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8878939606677742</v>
+        <v>0.8918074568454797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9499956952057181</v>
+        <v>0.9517945909356232</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -1267,19 +1267,19 @@
         <v>241051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>228943</v>
+        <v>227773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250626</v>
+        <v>250950</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8973455432699389</v>
+        <v>0.8973455432699387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8522702578953403</v>
+        <v>0.8479161588146811</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9329902548425414</v>
+        <v>0.934195595113683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -1288,19 +1288,19 @@
         <v>579502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>564184</v>
+        <v>563939</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>593559</v>
+        <v>594096</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9140459134344752</v>
+        <v>0.9140459134344749</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8898836214220948</v>
+        <v>0.8894976002302437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9362169553204074</v>
+        <v>0.9370641573678299</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>160624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135403</v>
+        <v>135672</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190053</v>
+        <v>190337</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09650778253960063</v>
+        <v>0.09650778253960064</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08135405594328159</v>
+        <v>0.08151563276219459</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1141896987112398</v>
+        <v>0.1143602381790731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1413,19 +1413,19 @@
         <v>63463</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49611</v>
+        <v>49617</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80210</v>
+        <v>84425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07039602847903453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05503067561574986</v>
+        <v>0.05503702437773999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0889722913370804</v>
+        <v>0.09364859212390399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -1434,19 +1434,19 @@
         <v>224087</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192205</v>
+        <v>195916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254239</v>
+        <v>261570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0873334931975123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07490793950910424</v>
+        <v>0.07635445117827991</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0990848147561431</v>
+        <v>0.1019418396930978</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1503739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1474310</v>
+        <v>1474026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1528960</v>
+        <v>1528691</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9034922174603993</v>
+        <v>0.9034922174603994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8858103012887601</v>
+        <v>0.8856397618209269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9186459440567183</v>
+        <v>0.9184843672378052</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1129</v>
@@ -1484,19 +1484,19 @@
         <v>838050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821303</v>
+        <v>817088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>851902</v>
+        <v>851896</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9296039715209655</v>
+        <v>0.9296039715209654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9110277086629202</v>
+        <v>0.9063514078760955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9449693243842502</v>
+        <v>0.9449629756222599</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2556</v>
@@ -1505,19 +1505,19 @@
         <v>2341790</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2311638</v>
+        <v>2304307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2373672</v>
+        <v>2369961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9126665068024877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9009151852438568</v>
+        <v>0.8980581603069026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9250920604908958</v>
+        <v>0.9236455488217201</v>
       </c>
     </row>
     <row r="15">
